--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117416.7156078828</v>
+        <v>-120982.217481432</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11720987.89041595</v>
+        <v>11717448.01407344</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>336.6598010748048</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>101.4163691045318</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968129</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>170.1253066958008</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>120.71590346878</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.74086563202125</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>104.2561166970508</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>103.9265808263641</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>36.20129281770974</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -987,10 +987,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.98930104615282</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>102.7410718462755</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>184.5721880936291</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>102.6631708521491</v>
+        <v>147.7368956119497</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>47.83355271768335</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>153.121093124006</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>60.57803491419139</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4303062027485475</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.73537706365185</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>74.22696713462329</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873666</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905899</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372779</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362792</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>167.2186022584445</v>
+        <v>40.7906534394134</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>110.5505475530557</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177837</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681689</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338893</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456086</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901678</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.506091445786</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534021</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>76.04782600803749</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059265</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2770,13 +2770,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542122</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.907289182028</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345502</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852513</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838911</v>
+        <v>24.1738259657497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828923</v>
+        <v>52.06849973564982</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161068</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034461</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813247</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.221621716203</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885342</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431756</v>
+        <v>70.57601873167815</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459996</v>
+        <v>55.72314698196055</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643969</v>
+        <v>41.29686219380028</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193188</v>
+        <v>41.22330424667939</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908607</v>
+        <v>42.97275566644666</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614782</v>
+        <v>53.79159358883879</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805025</v>
+        <v>41.14384575541084</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922218</v>
+        <v>18.98356133658277</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736781</v>
+        <v>9.882059701038685</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920541</v>
+        <v>88.008003206566</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133775</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273133</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714524</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1740.299346943874</v>
+        <v>1113.064217000456</v>
       </c>
       <c r="C2" t="n">
-        <v>1347.123845446804</v>
+        <v>773.003811874391</v>
       </c>
       <c r="D2" t="n">
-        <v>961.6827166634719</v>
+        <v>387.5626830910587</v>
       </c>
       <c r="E2" t="n">
-        <v>559.0991917800163</v>
+        <v>387.5626830910587</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>374.7086486614405</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>365.5862971898478</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475502</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253966</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354898</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572952</v>
+        <v>1102.089684652121</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023272</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023272</v>
+        <v>1851.661735376337</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023272</v>
+        <v>1509.554926079855</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.790056023272</v>
+        <v>1509.554926079855</v>
       </c>
       <c r="X2" t="n">
-        <v>2136.790056023272</v>
+        <v>1509.554926079855</v>
       </c>
       <c r="Y2" t="n">
-        <v>1740.299346943874</v>
+        <v>1113.064217000456</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284343</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875481</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737751</v>
+        <v>1940.231660716789</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1763.247848915697</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1763.247848915697</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.2186373540756</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="C4" t="n">
-        <v>512.0135194200648</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="D4" t="n">
-        <v>356.3804063225796</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8215941817821</v>
+        <v>331.9236069062875</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475502</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475502</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>174.5976721192605</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>821.01501326882</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>821.01501326882</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>821.01501326882</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>555.0356680896442</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>555.0356680896442</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>555.0356680896442</v>
       </c>
       <c r="Y4" t="n">
-        <v>867.4266560453768</v>
+        <v>331.9236069062875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1669.311879757299</v>
+        <v>709.7094832334399</v>
       </c>
       <c r="C5" t="n">
-        <v>1276.13637826023</v>
+        <v>604.40027444854</v>
       </c>
       <c r="D5" t="n">
-        <v>1276.13637826023</v>
+        <v>604.40027444854</v>
       </c>
       <c r="E5" t="n">
-        <v>873.5528533767741</v>
+        <v>201.8167495650845</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>423.0718195642678</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>423.0718195642678</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>936.6744981739555</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697129</v>
+        <v>1450.277176783643</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737751</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737751</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737751</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737751</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737751</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="W5" t="n">
-        <v>2069.806625468696</v>
+        <v>1499.65683401178</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.806625468696</v>
+        <v>1110.204228944837</v>
       </c>
       <c r="Y5" t="n">
-        <v>2069.806625468696</v>
+        <v>1110.204228944837</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021456</v>
+        <v>671.4221579801455</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622378</v>
+        <v>520.7679275402377</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837181</v>
+        <v>390.678960161718</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946059</v>
+        <v>254.2324692726057</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777377</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475502</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>128.7329332714596</v>
       </c>
       <c r="M6" t="n">
-        <v>1498.174658585115</v>
+        <v>642.3356118811473</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.41787818286</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.41787818286</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734592</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784301</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917588</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675997</v>
+        <v>887.3033373467692</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431069</v>
+        <v>707.9891204222765</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>655.9558027942228</v>
+        <v>520.7946638361964</v>
       </c>
       <c r="C7" t="n">
-        <v>655.9558027942228</v>
+        <v>520.7946638361964</v>
       </c>
       <c r="D7" t="n">
-        <v>500.3226896967376</v>
+        <v>520.7946638361964</v>
       </c>
       <c r="E7" t="n">
-        <v>500.3226896967376</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="F7" t="n">
-        <v>500.3226896967376</v>
+        <v>365.2358516953989</v>
       </c>
       <c r="G7" t="n">
-        <v>332.0686357961832</v>
+        <v>196.9817977948444</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U7" t="n">
-        <v>841.1638214855241</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="V7" t="n">
-        <v>841.1638214855241</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="W7" t="n">
-        <v>841.1638214855241</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="X7" t="n">
-        <v>841.1638214855241</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="Y7" t="n">
-        <v>841.1638214855241</v>
+        <v>520.7946638361964</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1352.200551858257</v>
+        <v>1141.217531504963</v>
       </c>
       <c r="C8" t="n">
-        <v>1352.200551858257</v>
+        <v>748.0420300078936</v>
       </c>
       <c r="D8" t="n">
-        <v>966.7594230749244</v>
+        <v>748.0420300078936</v>
       </c>
       <c r="E8" t="n">
-        <v>564.1758981914688</v>
+        <v>748.0420300078936</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="W8" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="X8" t="n">
-        <v>1752.695297569654</v>
+        <v>1938.202986295759</v>
       </c>
       <c r="Y8" t="n">
-        <v>1752.695297569654</v>
+        <v>1541.71227721636</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154367</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.7721419361088</v>
+        <v>493.2118812899988</v>
       </c>
       <c r="C10" t="n">
-        <v>215.5670240020981</v>
+        <v>493.2118812899988</v>
       </c>
       <c r="D10" t="n">
-        <v>215.5670240020981</v>
+        <v>493.2118812899988</v>
       </c>
       <c r="E10" t="n">
-        <v>215.5670240020981</v>
+        <v>493.2118812899988</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="X10" t="n">
-        <v>794.0922218107668</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="Y10" t="n">
-        <v>570.9801606274101</v>
+        <v>541.5286012068507</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880364</v>
+        <v>1434.218555009979</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529488</v>
+        <v>1112.839328659104</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>799.194475021965</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>468.4072252847031</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312597</v>
+        <v>123.3090619608747</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654568</v>
+        <v>123.3090619608747</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>123.3090619608747</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5078,13 +5078,13 @@
         <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543618</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2105.630376813569</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1780.935942880364</v>
+        <v>1762.917025575182</v>
       </c>
     </row>
     <row r="12">
@@ -5127,13 +5127,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.156408878212</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>305.5886577032642</v>
+        <v>244.3648084432239</v>
       </c>
       <c r="C13" t="n">
-        <v>207.1798149154474</v>
+        <v>145.9559656554069</v>
       </c>
       <c r="D13" t="n">
-        <v>207.1798149154474</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027733</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593279</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907707</v>
+        <v>1290.736098663833</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295802</v>
+        <v>1077.093582051928</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628198</v>
+        <v>882.9105120189456</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401913</v>
+        <v>671.3763850963171</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693683</v>
+        <v>509.092338025494</v>
       </c>
       <c r="Y13" t="n">
-        <v>347.7456042322055</v>
+        <v>357.7765519883312</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1719.57786453054</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="C14" t="n">
-        <v>1398.198638179665</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442403</v>
+        <v>748.5837713937469</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185751</v>
+        <v>403.4856080699185</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527722</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2690.627098949698</v>
+        <v>2364.065109187304</v>
       </c>
       <c r="X14" t="n">
-        <v>2372.970769028948</v>
+        <v>2046.408779266555</v>
       </c>
       <c r="Y14" t="n">
-        <v>2048.276335095743</v>
+        <v>1721.71434533335</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>387.3941705188075</v>
+        <v>655.0952099420616</v>
       </c>
       <c r="C16" t="n">
-        <v>387.3941705188075</v>
+        <v>556.6863671542446</v>
       </c>
       <c r="D16" t="n">
-        <v>303.5573325675163</v>
+        <v>472.8495292029532</v>
       </c>
       <c r="E16" t="n">
-        <v>303.5573325675163</v>
+        <v>389.0869922083497</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675163</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027738</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118225</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593279</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907707</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295802</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628202</v>
+        <v>1007.606986424697</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401918</v>
+        <v>1007.606986424697</v>
       </c>
       <c r="X16" t="n">
-        <v>499.0613902693689</v>
+        <v>845.3229393538735</v>
       </c>
       <c r="Y16" t="n">
-        <v>499.0613902693689</v>
+        <v>768.506953487169</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099308</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924213</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5543,22 +5543,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573993</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L18" t="n">
-        <v>175.2341099238429</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>803.0057595505241</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.783730761083</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1975.304013352064</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031230033</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222422</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184705</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797591</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5735,67 +5735,67 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803429</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924207</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129431</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404048</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064826</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5814,10 +5814,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5826,28 +5826,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="K21" t="n">
-        <v>456.9185815712231</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="L21" t="n">
-        <v>456.9185815712231</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1084.690231197904</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369565</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218798</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588724</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072652</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462906</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446686</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184684</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567324</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879416</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072231</v>
+        <v>974.9038003296496</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838017</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
@@ -5978,28 +5978,28 @@
         <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803433</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924236</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6075,16 +6075,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,10 +6151,10 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
         <v>806.6193906797589</v>
@@ -6163,34 +6163,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6221,37 +6221,37 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859516</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6297,19 +6297,19 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>607.4220014342354</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
         <v>1235.193651060917</v>
@@ -6379,19 +6379,19 @@
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225746</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904121</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6400,31 +6400,31 @@
         <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
         <v>594.597435602648</v>
@@ -6440,19 +6440,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
         <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142185</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6470,16 +6470,16 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517129</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878068</v>
@@ -6613,58 +6613,58 @@
         <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286451</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
         <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654427</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463679</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.89878230571</v>
+        <v>601.3807258108102</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230776</v>
+        <v>302.1370811803388</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189325</v>
+        <v>91.97314162835485</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>299.6075039956014</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230632</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741592</v>
+        <v>1219.219822695428</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786173</v>
+        <v>1765.220722740009</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150705</v>
+        <v>2293.032006377471</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043033</v>
+        <v>2844.723727844782</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174555</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380771</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394126</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291778</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154199</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004165</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076167</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>553.113634139075</v>
+        <v>870.8603675628847</v>
       </c>
       <c r="M33" t="n">
-        <v>809.9634606984599</v>
+        <v>1498.632017189566</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965144</v>
+        <v>365.6713676929706</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918679</v>
+        <v>309.3853606404853</v>
       </c>
       <c r="D34" t="n">
-        <v>302.206510823747</v>
+        <v>267.6713584245254</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123139</v>
+        <v>226.0316571652532</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546512</v>
+        <v>182.6248332597515</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834611</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431942</v>
+        <v>86.7304500837418</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703942</v>
+        <v>143.5810516071522</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074061</v>
+        <v>225.416092717094</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082759</v>
+        <v>501.1958531658768</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729599</v>
+        <v>799.1395520791239</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041691</v>
+        <v>982.329186110333</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145877</v>
+        <v>1145.033953152041</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649526</v>
+        <v>1264.91011892862</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746647</v>
+        <v>1379.984435873654</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308588</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420502</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689366</v>
+        <v>987.7859626250167</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395542</v>
+        <v>835.7257283273664</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000962</v>
+        <v>666.3144371400693</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124436</v>
+        <v>546.1532258045778</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584513</v>
+        <v>436.9602755027465</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924221</v>
+        <v>68.77950792924236</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J35" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6953,34 +6953,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443167</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M36" t="n">
-        <v>1319.055322752795</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885601</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369577</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218808</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072693</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462929</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J37" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.463261197453</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
         <v>565.7512566404055</v>
@@ -7190,7 +7190,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7248,19 +7248,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.8582737663419</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>381.8582737663419</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1009.629923393023</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7342,16 +7342,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.619390679759</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214671</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498046</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7388,25 +7388,25 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7485,19 +7485,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.010538436486</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L43" t="n">
-        <v>437.1381783102858</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J44" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7664,34 +7664,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7737,13 +7737,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072671</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462916</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411552</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446702</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974522</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>246.3235116806347</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>213.395276429667</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>151.3369738679578</v>
+        <v>574.4602701392379</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8216,25 +8216,25 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>382.3703222692387</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115928</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>178.1711413166366</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837495</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N6" t="n">
-        <v>532.0824356801716</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>652.9391957389953</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>471.7186805737889</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581657</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8775,16 +8775,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>324.3235533562099</v>
+        <v>577.006990218999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9006,19 +9006,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>663.2434089132776</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9240,25 +9240,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.3264449482919</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,13 +9477,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>374.1267046741214</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
@@ -9492,13 +9492,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>424.3297954396435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,16 +9951,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>192.2856137303842</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046924</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>571.8744206036789</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10428,25 +10428,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>436.3426582800314</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,13 +10905,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>301.8549375253375</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11385,7 +11385,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11394,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.297398429536514</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.0494604187932</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.54224904600446</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246576</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>88.056581784093</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750153</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>128.992130028219</v>
+        <v>255.4200788472501</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.727078556600517</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993865</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465748</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442475</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.802628176791</v>
+        <v>73.75480216875364</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1020978.753284359</v>
+        <v>1019174.110443078</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1020978.753284359</v>
+        <v>1019174.110443078</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922028.5821022633</v>
+        <v>922028.582102263</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922028.5821022633</v>
+        <v>922028.5821022631</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>306564.7027587065</v>
+        <v>306564.7027587066</v>
       </c>
       <c r="C2" t="n">
+        <v>306564.7027587066</v>
+      </c>
+      <c r="D2" t="n">
         <v>306564.7027587067</v>
-      </c>
-      <c r="D2" t="n">
-        <v>306564.7027587066</v>
       </c>
       <c r="E2" t="n">
         <v>270910.3398214811</v>
       </c>
       <c r="F2" t="n">
-        <v>270910.3398214813</v>
+        <v>270910.3398214811</v>
       </c>
       <c r="G2" t="n">
+        <v>306564.7027587065</v>
+      </c>
+      <c r="H2" t="n">
+        <v>306564.7027587066</v>
+      </c>
+      <c r="I2" t="n">
         <v>306564.7027587063</v>
       </c>
-      <c r="H2" t="n">
-        <v>306564.7027587065</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>306564.7027587067</v>
-      </c>
-      <c r="J2" t="n">
-        <v>306564.7027587066</v>
       </c>
       <c r="K2" t="n">
         <v>306564.7027587065</v>
       </c>
       <c r="L2" t="n">
-        <v>306564.7027587057</v>
+        <v>306564.7027587065</v>
       </c>
       <c r="M2" t="n">
-        <v>306564.7027587066</v>
+        <v>306564.7027587063</v>
       </c>
       <c r="N2" t="n">
-        <v>306564.7027587063</v>
+        <v>306564.7027587064</v>
       </c>
       <c r="O2" t="n">
         <v>306564.7027587064</v>
       </c>
       <c r="P2" t="n">
-        <v>306564.7027587065</v>
+        <v>306564.7027587064</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668184</v>
+        <v>47425.32553668202</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728524</v>
+        <v>62456.24177539695</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427713</v>
+        <v>27767.69404277119</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138792</v>
+        <v>237331.8440488216</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138792</v>
+        <v>237331.8440488216</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
       </c>
       <c r="E4" t="n">
-        <v>151510.2534766782</v>
+        <v>151510.2534766781</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766782</v>
+        <v>151510.2534766781</v>
       </c>
       <c r="G4" t="n">
+        <v>199269.1699682604</v>
+      </c>
+      <c r="H4" t="n">
+        <v>199269.1699682604</v>
+      </c>
+      <c r="I4" t="n">
         <v>199269.1699682603</v>
-      </c>
-      <c r="H4" t="n">
-        <v>199269.1699682602</v>
-      </c>
-      <c r="I4" t="n">
-        <v>199269.1699682602</v>
       </c>
       <c r="J4" t="n">
         <v>200019.6624326434</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326435</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173851</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551968</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-174748.8592870425</v>
+        <v>-169795.8658589871</v>
       </c>
       <c r="C6" t="n">
-        <v>7456.089004813708</v>
+        <v>4062.791175067774</v>
       </c>
       <c r="D6" t="n">
-        <v>-864.7513807557698</v>
+        <v>-8601.040604147624</v>
       </c>
       <c r="E6" t="n">
-        <v>-45908.49482908216</v>
+        <v>-46118.22637577155</v>
       </c>
       <c r="F6" t="n">
-        <v>66214.0666449625</v>
+        <v>66004.33509827293</v>
       </c>
       <c r="G6" t="n">
-        <v>1700.437938244526</v>
+        <v>1700.437938244402</v>
       </c>
       <c r="H6" t="n">
-        <v>49125.76347492656</v>
+        <v>49125.76347492654</v>
       </c>
       <c r="I6" t="n">
-        <v>49125.7634749268</v>
+        <v>49125.76347492647</v>
       </c>
       <c r="J6" t="n">
-        <v>-163916.154122359</v>
+        <v>-157399.8689677854</v>
       </c>
       <c r="K6" t="n">
-        <v>42885.99507214344</v>
+        <v>42885.99507214361</v>
       </c>
       <c r="L6" t="n">
-        <v>-12296.59386247809</v>
+        <v>-16345.43107294994</v>
       </c>
       <c r="M6" t="n">
-        <v>6924.934015303566</v>
+        <v>5873.239004115145</v>
       </c>
       <c r="N6" t="n">
-        <v>49125.7634749263</v>
+        <v>49125.76347492659</v>
       </c>
       <c r="O6" t="n">
-        <v>21358.06943215511</v>
+        <v>21358.06943215529</v>
       </c>
       <c r="P6" t="n">
-        <v>49125.76347492659</v>
+        <v>49125.7634749264</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,34 +26802,34 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014437</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293132</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014445</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014443</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208523</v>
+        <v>59.28165692085253</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660655</v>
+        <v>78.07030221924619</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155137</v>
+        <v>17.58004954287418</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346413</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407208</v>
+        <v>117.1268713042803</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208523</v>
+        <v>59.28165692085253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346399</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,22 +27379,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>52.58394540729392</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>311.3091249807902</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27506,16 +27506,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626774</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>50.18929491684287</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>80.0720195104961</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27594,7 +27594,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>144.1400749395018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>284.9876297850478</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27676,10 +27676,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>263.3624638550314</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>114.077078278842</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270138</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,10 +27825,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>179.8433319942426</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>36.30875247789393</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>310.0623232331729</v>
+        <v>264.9885984733723</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>135.5223857867049</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28020,16 +28020,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>78.6184258708407</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473202</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,49 +28719,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668917</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634527685</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>35.71049010668696</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901203</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431664</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29542,19 +29542,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="O29" t="n">
-        <v>30.27223765901266</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566833</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>43.49509683159704</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000707</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,40 +29904,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000707</v>
+        <v>106.8683420224693</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254552</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000707</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000707</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-12</v>
       </c>
       <c r="R35" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,43 +30141,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082793</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>128.2979821082772</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30645,7 +30645,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.297982108277</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S44" t="n">
         <v>130.3599693155844</v>
@@ -30876,16 +30876,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>35.71049010668862</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>93.07534195014298</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344376</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>64.27678509188294</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>58.94985181864591</v>
+        <v>482.073148089926</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34936,25 +34936,25 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>239.3119190900013</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344376</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O5" t="n">
-        <v>68.95436468749639</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>88.11079445971841</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344376</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N6" t="n">
-        <v>446.7103228260049</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>503.2141441412681</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>381.6583337168707</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088538</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35495,16 +35495,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>231.936431306898</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>570.8562868639657</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257295</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.251623847524</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488451</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.2430801289772</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634530099</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905433</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724859</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>284.5297693407881</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
@@ -36212,13 +36212,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934969</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716088</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>338.9576825854768</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,10 +36519,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101035</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>102.225266873466</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963366</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,19 +36838,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>486.5023077495123</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917573</v>
+        <v>258.8908014987991</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>541.798421799808</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184965</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273743</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791163</v>
+        <v>76.79385455031021</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868807</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220907</v>
+        <v>278.5654145947301</v>
       </c>
       <c r="M34" t="n">
-        <v>206.8877800653375</v>
+        <v>300.9532312255021</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
@@ -37242,10 +37242,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110611</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>343.9555362307195</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528671</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634530472</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>216.4828246711708</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>249.385018246236</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528405</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37941,7 +37941,7 @@
         <v>213.0216270023944</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634528176</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38114,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934986</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
